--- a/AAII_Financials/Quarterly/MOHO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOHO_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/MOHO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOHO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="92">
   <si>
     <t>MOHO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,180 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>61200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>103200</v>
+      </c>
+      <c r="F8" s="3">
+        <v>74900</v>
+      </c>
+      <c r="G8" s="3">
         <v>151300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="H8" s="3">
         <v>63900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="I8" s="3">
         <v>78900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="J8" s="3">
         <v>48800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="K8" s="3">
         <v>43200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>28200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>40200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>23700</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>85500</v>
+      </c>
+      <c r="F9" s="3">
+        <v>56500</v>
+      </c>
+      <c r="G9" s="3">
         <v>115400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="H9" s="3">
         <v>47400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="I9" s="3">
         <v>56800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="J9" s="3">
         <v>34500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="K9" s="3">
         <v>29600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>19300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>29100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>17700</v>
+      </c>
+      <c r="F10" s="3">
+        <v>18400</v>
+      </c>
+      <c r="G10" s="3">
         <v>35900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="H10" s="3">
         <v>16500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="I10" s="3">
         <v>22100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="J10" s="3">
         <v>14300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="K10" s="3">
         <v>13600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>8900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>11100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,37 +850,49 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="E12" s="3">
         <v>500</v>
       </c>
       <c r="F12" s="3">
+        <v>400</v>
+      </c>
+      <c r="G12" s="3">
+        <v>900</v>
+      </c>
+      <c r="H12" s="3">
+        <v>500</v>
+      </c>
+      <c r="I12" s="3">
         <v>600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="J12" s="3">
         <v>400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="K12" s="3">
         <v>400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="L12" s="3">
         <v>300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="M12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="N12" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -870,8 +920,17 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -899,8 +958,17 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -928,8 +996,17 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,23 +1015,26 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>66800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>104300</v>
+      </c>
+      <c r="F17" s="3">
+        <v>72300</v>
+      </c>
+      <c r="G17" s="3">
         <v>148300</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>12</v>
       </c>
@@ -967,23 +1047,32 @@
       <c r="K17" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G18" s="3">
         <v>3000</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>12</v>
       </c>
@@ -996,8 +1085,17 @@
       <c r="K18" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,23 +1107,26 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G20" s="3">
         <v>-900</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>12</v>
       </c>
@@ -1038,23 +1139,32 @@
       <c r="K20" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="3">
         <v>2600</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>12</v>
       </c>
@@ -1067,8 +1177,17 @@
       <c r="K21" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,66 +1215,93 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G23" s="3">
         <v>2100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
         <v>400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>3900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>1600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F24" s="3">
+        <v>300</v>
+      </c>
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,23 +1329,32 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G26" s="3">
         <v>1700</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>12</v>
       </c>
@@ -1212,23 +1367,32 @@
       <c r="K26" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G27" s="3">
         <v>900</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>12</v>
       </c>
@@ -1241,8 +1405,17 @@
       <c r="K27" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1443,17 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1481,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1519,17 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,23 +1557,32 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>400</v>
+      </c>
+      <c r="G32" s="3">
         <v>900</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>12</v>
       </c>
@@ -1386,23 +1595,32 @@
       <c r="K32" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G33" s="3">
         <v>900</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>12</v>
       </c>
@@ -1415,8 +1633,17 @@
       <c r="K33" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,23 +1671,32 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G35" s="3">
         <v>900</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>12</v>
       </c>
@@ -1473,42 +1709,60 @@
       <c r="K35" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1774,11 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,23 +1790,26 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>49100</v>
+      </c>
+      <c r="F41" s="3">
+        <v>7800</v>
+      </c>
+      <c r="G41" s="3">
         <v>11700</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>12</v>
       </c>
@@ -1562,8 +1822,17 @@
       <c r="K41" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,23 +1860,32 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>44100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>52600</v>
+      </c>
+      <c r="F43" s="3">
+        <v>60800</v>
+      </c>
+      <c r="G43" s="3">
         <v>60600</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>12</v>
       </c>
@@ -1620,23 +1898,32 @@
       <c r="K43" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>49900</v>
+      </c>
+      <c r="F44" s="3">
+        <v>61300</v>
+      </c>
+      <c r="G44" s="3">
         <v>43900</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>12</v>
       </c>
@@ -1649,23 +1936,32 @@
       <c r="K44" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>20600</v>
+      </c>
+      <c r="F45" s="3">
+        <v>21000</v>
+      </c>
+      <c r="G45" s="3">
         <v>14200</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>12</v>
       </c>
@@ -1678,23 +1974,32 @@
       <c r="K45" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>164500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>172200</v>
+      </c>
+      <c r="F46" s="3">
+        <v>151000</v>
+      </c>
+      <c r="G46" s="3">
         <v>130400</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>12</v>
       </c>
@@ -1707,8 +2012,17 @@
       <c r="K46" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,23 +2050,32 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F48" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G48" s="3">
         <v>3500</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>12</v>
       </c>
@@ -1765,23 +2088,32 @@
       <c r="K48" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G49" s="3">
         <v>1400</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>12</v>
       </c>
@@ -1794,8 +2126,17 @@
       <c r="K49" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2164,17 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,23 +2202,32 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F52" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G52" s="3">
         <v>4200</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>12</v>
       </c>
@@ -1881,8 +2240,17 @@
       <c r="K52" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,23 +2278,32 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>170400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>178500</v>
+      </c>
+      <c r="F54" s="3">
+        <v>159800</v>
+      </c>
+      <c r="G54" s="3">
         <v>139500</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>12</v>
       </c>
@@ -1939,8 +2316,17 @@
       <c r="K54" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2338,11 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,23 +2354,26 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>27500</v>
+      </c>
+      <c r="F57" s="3">
+        <v>49700</v>
+      </c>
+      <c r="G57" s="3">
         <v>27600</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>12</v>
       </c>
@@ -1994,23 +2386,32 @@
       <c r="K57" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>34500</v>
+      </c>
+      <c r="F58" s="3">
+        <v>32800</v>
+      </c>
+      <c r="G58" s="3">
         <v>35600</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>12</v>
       </c>
@@ -2023,22 +2424,31 @@
       <c r="K58" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
         <v>30400</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>12</v>
+      <c r="E59" s="3">
+        <v>31500</v>
+      </c>
+      <c r="F59" s="3">
+        <v>25300</v>
+      </c>
+      <c r="G59" s="3">
+        <v>30400</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>12</v>
@@ -2052,23 +2462,32 @@
       <c r="K59" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>90700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>93600</v>
+      </c>
+      <c r="F60" s="3">
+        <v>107800</v>
+      </c>
+      <c r="G60" s="3">
         <v>93500</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>12</v>
       </c>
@@ -2081,8 +2500,17 @@
       <c r="K60" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,23 +2538,32 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>200</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G62" s="3">
         <v>2000</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>12</v>
       </c>
@@ -2139,8 +2576,17 @@
       <c r="K62" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2614,17 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2652,17 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,23 +2690,32 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>91000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>94300</v>
+      </c>
+      <c r="F66" s="3">
+        <v>110400</v>
+      </c>
+      <c r="G66" s="3">
         <v>96400</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>12</v>
       </c>
@@ -2255,8 +2728,17 @@
       <c r="K66" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2750,11 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2782,17 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,23 +2820,32 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>69500</v>
+      </c>
+      <c r="G70" s="3">
         <v>69200</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
@@ -2355,8 +2858,17 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,23 +2896,32 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="G72" s="3">
         <v>-20000</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>12</v>
       </c>
@@ -2413,8 +2934,17 @@
       <c r="K72" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2972,17 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +3010,17 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,23 +3048,32 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>79400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>84100</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="G76" s="3">
         <v>-26100</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>12</v>
       </c>
@@ -2529,8 +3086,17 @@
       <c r="K76" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,57 +3124,75 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F81" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G81" s="3">
         <v>900</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H81" s="3" t="s">
         <v>12</v>
       </c>
@@ -2621,8 +3205,17 @@
       <c r="K81" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,23 +3227,26 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" s="3">
         <v>500</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>12</v>
       </c>
@@ -2663,8 +3259,17 @@
       <c r="K83" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3297,17 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3335,17 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3373,17 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3411,17 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,23 +3449,32 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" s="3">
         <v>-12700</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>12</v>
       </c>
@@ -2837,8 +3487,17 @@
       <c r="K89" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,23 +3509,26 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>12</v>
       </c>
@@ -2879,8 +3541,17 @@
       <c r="K91" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3579,17 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,23 +3617,32 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>12</v>
       </c>
@@ -2966,8 +3655,17 @@
       <c r="K94" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3677,11 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3709,17 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3747,17 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3785,17 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,23 +3823,32 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" s="3">
         <v>16500</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>12</v>
       </c>
@@ -3124,23 +3861,32 @@
       <c r="K100" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>12</v>
       </c>
@@ -3153,23 +3899,32 @@
       <c r="K101" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G102" s="3">
         <v>3200</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>12</v>
       </c>
@@ -3180,6 +3935,15 @@
         <v>12</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>12</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOHO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOHO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="92">
   <si>
     <t>MOHO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,206 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>71500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>100500</v>
+      </c>
+      <c r="F8" s="3">
         <v>61200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>103200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>74900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>151300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>63900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>78900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>48800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>43200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>28200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>40200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>23700</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>58800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>83200</v>
+      </c>
+      <c r="F9" s="3">
         <v>50400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>85500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>56500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>115400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>47400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>56800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>34500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>29600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>19300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>29100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>17300</v>
+      </c>
+      <c r="F10" s="3">
         <v>10800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>17700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>18400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>35900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>16500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>22100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>14300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>13600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>8900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>11100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,8 +879,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -862,37 +890,43 @@
         <v>300</v>
       </c>
       <c r="E12" s="3">
+        <v>300</v>
+      </c>
+      <c r="F12" s="3">
+        <v>300</v>
+      </c>
+      <c r="G12" s="3">
         <v>500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -929,8 +963,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -967,8 +1007,14 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1005,8 +1051,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,29 +1070,31 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="3">
+        <v>103700</v>
+      </c>
+      <c r="F17" s="3">
         <v>66800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>104300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>72300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>148300</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>12</v>
       </c>
@@ -1056,29 +1110,35 @@
       <c r="N17" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-5600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>2600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>3000</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>12</v>
       </c>
@@ -1094,8 +1154,14 @@
       <c r="N18" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,29 +1176,31 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-900</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>12</v>
       </c>
@@ -1148,8 +1216,14 @@
       <c r="N20" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1162,15 +1236,15 @@
       <c r="F21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="3">
         <v>2600</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>12</v>
       </c>
@@ -1186,8 +1260,14 @@
       <c r="N21" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1224,46 +1304,58 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-4600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>2200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>2100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>3900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1271,25 +1363,25 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>100</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
       </c>
       <c r="L24" s="3">
         <v>100</v>
@@ -1300,8 +1392,14 @@
       <c r="N24" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,29 +1436,35 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-4600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>1900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>1700</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>12</v>
       </c>
@@ -1376,29 +1480,35 @@
       <c r="N26" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="G27" s="3">
         <v>-1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>1700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>900</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>12</v>
       </c>
@@ -1414,8 +1524,14 @@
       <c r="N27" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,29 +1700,35 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>900</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>12</v>
       </c>
@@ -1604,29 +1744,35 @@
       <c r="N32" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="G33" s="3">
         <v>-1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>1700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>900</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>12</v>
       </c>
@@ -1642,8 +1788,14 @@
       <c r="N33" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,29 +1832,35 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="G35" s="3">
         <v>-1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>1700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>900</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>12</v>
       </c>
@@ -1718,51 +1876,63 @@
       <c r="N35" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,29 +1965,31 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>51400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>62500</v>
+      </c>
+      <c r="F41" s="3">
         <v>51000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>49100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>7800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>11700</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>12</v>
       </c>
@@ -1831,8 +2005,14 @@
       <c r="N41" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,29 +2049,35 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>51300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>51100</v>
+      </c>
+      <c r="F43" s="3">
         <v>44100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>52600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>60800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>60600</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>12</v>
       </c>
@@ -1907,29 +2093,35 @@
       <c r="N43" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>46700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>51200</v>
+      </c>
+      <c r="F44" s="3">
         <v>48600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>49900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>61300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>43900</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>12</v>
       </c>
@@ -1945,29 +2137,35 @@
       <c r="N44" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>19300</v>
+      </c>
+      <c r="F45" s="3">
         <v>20800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>20600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>21000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>14200</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>12</v>
       </c>
@@ -1983,29 +2181,35 @@
       <c r="N45" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>163200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>184100</v>
+      </c>
+      <c r="F46" s="3">
         <v>164500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>172200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>151000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>130400</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>12</v>
       </c>
@@ -2021,8 +2225,14 @@
       <c r="N46" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,29 +2269,35 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F48" s="3">
         <v>2200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>3000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>3500</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>12</v>
       </c>
@@ -2097,29 +2313,35 @@
       <c r="N48" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F49" s="3">
         <v>1200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1400</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>12</v>
       </c>
@@ -2135,8 +2357,14 @@
       <c r="N49" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,29 +2445,35 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F52" s="3">
         <v>2400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>2300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>4500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>4200</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>12</v>
       </c>
@@ -2249,8 +2489,14 @@
       <c r="N52" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,29 +2533,35 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>172200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>189800</v>
+      </c>
+      <c r="F54" s="3">
         <v>170400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>178500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>159800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>139500</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>12</v>
       </c>
@@ -2325,8 +2577,14 @@
       <c r="N54" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,29 +2617,31 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>45900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>38300</v>
+      </c>
+      <c r="F57" s="3">
         <v>29000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>27500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>49700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>27600</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>12</v>
       </c>
@@ -2395,29 +2657,35 @@
       <c r="N57" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>42800</v>
+      </c>
+      <c r="F58" s="3">
         <v>31200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>34500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>32800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>35600</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>12</v>
       </c>
@@ -2433,29 +2701,35 @@
       <c r="N58" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>33300</v>
+      </c>
+      <c r="F59" s="3">
         <v>30400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>31500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>25300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>30400</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>12</v>
       </c>
@@ -2471,29 +2745,35 @@
       <c r="N59" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>96200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>114300</v>
+      </c>
+      <c r="F60" s="3">
         <v>90700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>93600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>107800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>93500</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>12</v>
       </c>
@@ -2509,8 +2789,14 @@
       <c r="N60" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2547,8 +2833,14 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2556,20 +2848,20 @@
         <v>100</v>
       </c>
       <c r="E62" s="3">
+        <v>100</v>
+      </c>
+      <c r="F62" s="3">
+        <v>100</v>
+      </c>
+      <c r="G62" s="3">
         <v>200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2000</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>12</v>
       </c>
@@ -2585,8 +2877,14 @@
       <c r="N62" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,29 +3009,35 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>96500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>114500</v>
+      </c>
+      <c r="F66" s="3">
         <v>91000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>94300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>110400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>96400</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>12</v>
       </c>
@@ -2737,8 +3053,14 @@
       <c r="N66" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2841,17 +3177,17 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>69500</v>
       </c>
-      <c r="G70" s="3">
+      <c r="I70" s="3">
         <v>69200</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -2867,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,29 +3247,35 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-32500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-24000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-19600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-18100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-20000</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>12</v>
       </c>
@@ -2943,8 +3291,14 @@
       <c r="N72" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,29 +3423,35 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" s="3">
+        <v>75300</v>
+      </c>
+      <c r="F76" s="3">
         <v>79400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>84100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-20100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-26100</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>12</v>
       </c>
@@ -3095,8 +3467,14 @@
       <c r="N76" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,72 +3511,84 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="G81" s="3">
         <v>-1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>1700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>900</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>12</v>
       </c>
@@ -3214,8 +3604,14 @@
       <c r="N81" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,31 +3626,33 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>12</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>500</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>12</v>
@@ -3268,8 +3666,14 @@
       <c r="N83" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,31 +3886,37 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>12</v>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>-12700</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>12</v>
@@ -3496,8 +3930,14 @@
       <c r="N89" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,31 +3952,33 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>12</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>12</v>
@@ -3550,8 +3992,14 @@
       <c r="N91" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,31 +4080,37 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>12</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>12</v>
@@ -3664,8 +4124,14 @@
       <c r="N94" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,31 +4318,37 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>12</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>16500</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>12</v>
@@ -3870,31 +4362,37 @@
       <c r="N100" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>12</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>12</v>
@@ -3908,31 +4406,37 @@
       <c r="N101" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>12</v>
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>3200</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>12</v>
@@ -3944,6 +4448,12 @@
         <v>12</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>12</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOHO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOHO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="92">
   <si>
     <t>MOHO</t>
   </si>
@@ -1077,8 +1077,8 @@
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>12</v>
+      <c r="D17" s="3">
+        <v>75700</v>
       </c>
       <c r="E17" s="3">
         <v>103700</v>
@@ -1121,8 +1121,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>12</v>
+      <c r="D18" s="3">
+        <v>-4200</v>
       </c>
       <c r="E18" s="3">
         <v>-3200</v>
@@ -1183,8 +1183,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>12</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>-1300</v>
@@ -1447,8 +1447,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>12</v>
+      <c r="D26" s="3">
+        <v>-4100</v>
       </c>
       <c r="E26" s="3">
         <v>-4500</v>
@@ -1491,8 +1491,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>12</v>
+      <c r="D27" s="3">
+        <v>-4100</v>
       </c>
       <c r="E27" s="3">
         <v>-4400</v>
@@ -1711,8 +1711,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>12</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>1300</v>
@@ -1755,8 +1755,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>12</v>
+      <c r="D33" s="3">
+        <v>-4100</v>
       </c>
       <c r="E33" s="3">
         <v>-4400</v>
@@ -1843,8 +1843,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>12</v>
+      <c r="D35" s="3">
+        <v>-4100</v>
       </c>
       <c r="E35" s="3">
         <v>-4400</v>
@@ -2237,25 +2237,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>4100</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2457,7 +2457,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="E52" s="3">
         <v>2700</v>
@@ -2713,7 +2713,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>22200</v>
+        <v>26600</v>
       </c>
       <c r="E59" s="3">
         <v>33300</v>
@@ -3434,8 +3434,8 @@
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>12</v>
+      <c r="D76" s="3">
+        <v>75700</v>
       </c>
       <c r="E76" s="3">
         <v>75300</v>
@@ -3571,8 +3571,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>12</v>
+      <c r="D81" s="3">
+        <v>-4100</v>
       </c>
       <c r="E81" s="3">
         <v>-4400</v>

--- a/AAII_Financials/Quarterly/MOHO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOHO_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,218 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>71900</v>
+      </c>
+      <c r="E8" s="3">
         <v>71500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>100500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>61200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>103200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>74900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>151300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>63900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>78900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>48800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>43200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>28200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>40200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>23700</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>53900</v>
+      </c>
+      <c r="E9" s="3">
         <v>58800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>83200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>50400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>85500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>56500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>115400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>47400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>56800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>34500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>29600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>19300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>29100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E10" s="3">
         <v>12700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>17300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>10800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>17700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>18400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>35900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>16500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>22100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>14300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>13600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>11100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,13 +893,14 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E12" s="3">
         <v>300</v>
@@ -896,37 +909,40 @@
         <v>300</v>
       </c>
       <c r="G12" s="3">
+        <v>300</v>
+      </c>
+      <c r="H12" s="3">
         <v>500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>600</v>
-      </c>
-      <c r="L12" s="3">
-        <v>400</v>
       </c>
       <c r="M12" s="3">
         <v>400</v>
       </c>
       <c r="N12" s="3">
+        <v>400</v>
+      </c>
+      <c r="O12" s="3">
         <v>300</v>
-      </c>
-      <c r="O12" s="3">
-        <v>200</v>
       </c>
       <c r="P12" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1013,8 +1032,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,32 +1097,33 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>72500</v>
+      </c>
+      <c r="E17" s="3">
         <v>75700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>103700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>66800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>104300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>72300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>148300</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>12</v>
       </c>
@@ -1116,32 +1142,35 @@
       <c r="P17" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3000</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>12</v>
       </c>
@@ -1160,8 +1189,11 @@
       <c r="P18" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,32 +1210,33 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-900</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>12</v>
       </c>
@@ -1222,8 +1255,11 @@
       <c r="P20" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1239,15 +1275,15 @@
       <c r="G21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="H21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="3">
         <v>2600</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>12</v>
       </c>
@@ -1266,8 +1302,11 @@
       <c r="P21" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,52 +1349,58 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1369,37 +1414,40 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
-      </c>
-      <c r="J24" s="3">
-        <v>200</v>
       </c>
       <c r="K24" s="3">
         <v>200</v>
       </c>
       <c r="L24" s="3">
+        <v>200</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,32 +1490,35 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1700</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>12</v>
       </c>
@@ -1486,32 +1537,35 @@
       <c r="P26" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4100</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-4400</v>
       </c>
       <c r="F27" s="3">
         <v>-4400</v>
       </c>
       <c r="G27" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="H27" s="3">
         <v>-1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>900</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>12</v>
       </c>
@@ -1530,8 +1584,11 @@
       <c r="P27" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,32 +1772,35 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>900</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>12</v>
       </c>
@@ -1750,32 +1819,35 @@
       <c r="P32" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4100</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-4400</v>
       </c>
       <c r="F33" s="3">
         <v>-4400</v>
       </c>
       <c r="G33" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="H33" s="3">
         <v>-1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>900</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>12</v>
       </c>
@@ -1794,8 +1866,11 @@
       <c r="P33" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,32 +1913,35 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4100</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-4400</v>
       </c>
       <c r="F35" s="3">
         <v>-4400</v>
       </c>
       <c r="G35" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="H35" s="3">
         <v>-1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>900</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>12</v>
       </c>
@@ -1882,57 +1960,63 @@
       <c r="P35" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,32 +2052,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>45300</v>
+      </c>
+      <c r="E41" s="3">
         <v>51400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>62500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>51000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>49100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11700</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>12</v>
       </c>
@@ -2011,8 +2097,11 @@
       <c r="P41" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,32 +2144,35 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>45400</v>
+      </c>
+      <c r="E43" s="3">
         <v>51300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>51100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>44100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>52600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>60800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>60600</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>12</v>
       </c>
@@ -2099,32 +2191,35 @@
       <c r="P43" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E44" s="3">
         <v>46700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>51200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>48600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>49900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>61300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>43900</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>12</v>
       </c>
@@ -2143,32 +2238,35 @@
       <c r="P44" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E45" s="3">
         <v>13800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>19300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>20800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>20600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>21000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>14200</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>12</v>
       </c>
@@ -2187,32 +2285,35 @@
       <c r="P45" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>130400</v>
+      </c>
+      <c r="E46" s="3">
         <v>163200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>184100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>164500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>172200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>151000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>130400</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>12</v>
       </c>
@@ -2231,17 +2332,20 @@
       <c r="P46" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E47" s="3">
         <v>4100</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>12</v>
       </c>
@@ -2257,8 +2361,8 @@
       <c r="J47" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2275,32 +2379,35 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E48" s="3">
         <v>1600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3500</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>12</v>
       </c>
@@ -2319,32 +2426,35 @@
       <c r="P48" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="E49" s="3">
         <v>1100</v>
       </c>
       <c r="F49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G49" s="3">
         <v>1200</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1300</v>
       </c>
       <c r="H49" s="3">
         <v>1300</v>
       </c>
       <c r="I49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J49" s="3">
         <v>1400</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>12</v>
       </c>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,32 +2567,35 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E52" s="3">
         <v>2300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4200</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>12</v>
       </c>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,32 +2661,35 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>142600</v>
+      </c>
+      <c r="E54" s="3">
         <v>172200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>189800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>170400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>178500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>159800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>139500</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>12</v>
       </c>
@@ -2583,8 +2708,11 @@
       <c r="P54" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,32 +2748,33 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E57" s="3">
         <v>45900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>38300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>29000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>27500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>49700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>27600</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>12</v>
       </c>
@@ -2663,32 +2793,35 @@
       <c r="P57" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E58" s="3">
         <v>23700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>42800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>31200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>34500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>32800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>35600</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>12</v>
       </c>
@@ -2707,32 +2840,35 @@
       <c r="P58" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E59" s="3">
         <v>26600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>33300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>30400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>31500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>25300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>30400</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>12</v>
       </c>
@@ -2751,32 +2887,35 @@
       <c r="P59" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>61100</v>
+      </c>
+      <c r="E60" s="3">
         <v>96200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>114300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>90700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>93600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>107800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>93500</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>12</v>
       </c>
@@ -2795,8 +2934,11 @@
       <c r="P60" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,13 +2981,16 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
@@ -2854,17 +2999,17 @@
         <v>100</v>
       </c>
       <c r="G62" s="3">
+        <v>100</v>
+      </c>
+      <c r="H62" s="3">
         <v>200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2000</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>12</v>
       </c>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,32 +3169,35 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>63100</v>
+      </c>
+      <c r="E66" s="3">
         <v>96500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>114500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>91000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>94300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>110400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>96400</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>12</v>
       </c>
@@ -3059,8 +3216,11 @@
       <c r="P66" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3183,14 +3350,14 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>69500</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>69200</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,32 +3423,35 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-32900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-32500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-28300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-24000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-19600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-18100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-20000</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>12</v>
       </c>
@@ -3297,8 +3470,11 @@
       <c r="P72" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,32 +3611,35 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>79600</v>
+      </c>
+      <c r="E76" s="3">
         <v>75700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>75300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>79400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>84100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-20100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-26100</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>12</v>
       </c>
@@ -3473,8 +3658,11 @@
       <c r="P76" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,81 +3705,87 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4100</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-4400</v>
       </c>
       <c r="F81" s="3">
         <v>-4400</v>
       </c>
       <c r="G81" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="H81" s="3">
         <v>-1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>900</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>12</v>
       </c>
@@ -3610,8 +3804,11 @@
       <c r="P81" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3654,8 +3852,8 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>12</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>12</v>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4105,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3918,8 +4134,8 @@
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>12</v>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>12</v>
@@ -3936,8 +4152,11 @@
       <c r="P89" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3980,8 +4200,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>12</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>12</v>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4312,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4112,8 +4341,8 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>12</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>12</v>
@@ -4130,8 +4359,11 @@
       <c r="P94" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4566,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4350,8 +4595,8 @@
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>12</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>12</v>
@@ -4368,8 +4613,11 @@
       <c r="P100" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4394,8 +4642,8 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>12</v>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>12</v>
@@ -4412,8 +4660,11 @@
       <c r="P101" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4438,8 +4689,8 @@
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>12</v>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>12</v>
@@ -4454,6 +4705,9 @@
         <v>12</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>12</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOHO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOHO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="92">
   <si>
     <t>MOHO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E8" s="3">
         <v>71900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>71500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>100500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>61200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>103200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>74900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>151300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>63900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>78900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>48800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>43200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>28200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>40200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>23700</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E9" s="3">
         <v>53900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>58800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>83200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>50400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>85500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>56500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>115400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>47400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>56800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>34500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>29600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>19300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>29100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E10" s="3">
         <v>18000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>12700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>17300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>10800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>17700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>18400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>35900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>16500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>22100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>14300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>13600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>11100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,16 +907,17 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>300</v>
+      </c>
+      <c r="E12" s="3">
         <v>200</v>
-      </c>
-      <c r="E12" s="3">
-        <v>300</v>
       </c>
       <c r="F12" s="3">
         <v>300</v>
@@ -912,37 +926,40 @@
         <v>300</v>
       </c>
       <c r="H12" s="3">
+        <v>300</v>
+      </c>
+      <c r="I12" s="3">
         <v>500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>600</v>
-      </c>
-      <c r="M12" s="3">
-        <v>400</v>
       </c>
       <c r="N12" s="3">
         <v>400</v>
       </c>
       <c r="O12" s="3">
+        <v>400</v>
+      </c>
+      <c r="P12" s="3">
         <v>300</v>
-      </c>
-      <c r="P12" s="3">
-        <v>200</v>
       </c>
       <c r="Q12" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,35 +1124,36 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E17" s="3">
         <v>72500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>75700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>103700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>66800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>104300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>72300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>148300</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>12</v>
       </c>
@@ -1145,35 +1172,38 @@
       <c r="Q17" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3000</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>12</v>
       </c>
@@ -1192,8 +1222,11 @@
       <c r="Q18" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,35 +1244,36 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-900</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>12</v>
       </c>
@@ -1258,8 +1292,11 @@
       <c r="Q20" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1275,18 +1312,18 @@
       <c r="G21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="3">
         <v>-1100</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="3">
         <v>2600</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>12</v>
       </c>
@@ -1305,8 +1342,11 @@
       <c r="Q21" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,55 +1392,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1417,37 +1463,40 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
-      </c>
-      <c r="K24" s="3">
-        <v>200</v>
       </c>
       <c r="L24" s="3">
         <v>200</v>
       </c>
       <c r="M24" s="3">
+        <v>200</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,35 +1542,38 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1700</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>12</v>
       </c>
@@ -1540,35 +1592,38 @@
       <c r="Q26" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-4400</v>
       </c>
       <c r="G27" s="3">
         <v>-4400</v>
       </c>
       <c r="H27" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>900</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>12</v>
       </c>
@@ -1587,8 +1642,11 @@
       <c r="Q27" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,35 +1842,38 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>900</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>12</v>
       </c>
@@ -1822,35 +1892,38 @@
       <c r="Q32" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-4400</v>
       </c>
       <c r="G33" s="3">
         <v>-4400</v>
       </c>
       <c r="H33" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>900</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>12</v>
       </c>
@@ -1869,8 +1942,11 @@
       <c r="Q33" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,35 +1992,38 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-4400</v>
       </c>
       <c r="G35" s="3">
         <v>-4400</v>
       </c>
       <c r="H35" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>900</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>12</v>
       </c>
@@ -1963,60 +2042,66 @@
       <c r="Q35" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,35 +2139,36 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>40900</v>
+      </c>
+      <c r="E41" s="3">
         <v>45300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>51400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>62500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>51000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>49100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11700</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>12</v>
       </c>
@@ -2100,8 +2187,11 @@
       <c r="Q41" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,35 +2237,38 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E43" s="3">
         <v>45400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>51300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>51100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>44100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>52600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>60800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>60600</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>12</v>
       </c>
@@ -2194,35 +2287,38 @@
       <c r="Q43" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E44" s="3">
         <v>33300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>46700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>51200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>48600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>49900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>61300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>43900</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>12</v>
       </c>
@@ -2241,35 +2337,38 @@
       <c r="Q44" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E45" s="3">
         <v>6400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>13800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>19300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>20800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>20600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>21000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>14200</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>12</v>
       </c>
@@ -2288,35 +2387,38 @@
       <c r="Q45" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>110000</v>
+      </c>
+      <c r="E46" s="3">
         <v>130400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>163200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>184100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>164500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>172200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>151000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>130400</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>12</v>
       </c>
@@ -2335,20 +2437,23 @@
       <c r="Q46" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E47" s="3">
         <v>5900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4100</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>12</v>
       </c>
@@ -2364,8 +2469,8 @@
       <c r="K47" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2382,35 +2487,38 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E48" s="3">
         <v>3400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3500</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>12</v>
       </c>
@@ -2429,8 +2537,11 @@
       <c r="Q48" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2438,26 +2549,26 @@
         <v>600</v>
       </c>
       <c r="E49" s="3">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="F49" s="3">
         <v>1100</v>
       </c>
       <c r="G49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H49" s="3">
         <v>1200</v>
-      </c>
-      <c r="H49" s="3">
-        <v>1300</v>
       </c>
       <c r="I49" s="3">
         <v>1300</v>
       </c>
       <c r="J49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K49" s="3">
         <v>1400</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>12</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,35 +2687,38 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E52" s="3">
         <v>2400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4200</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>12</v>
       </c>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,35 +2787,38 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>123900</v>
+      </c>
+      <c r="E54" s="3">
         <v>142600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>172200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>189800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>170400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>178500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>159800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>139500</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>12</v>
       </c>
@@ -2711,8 +2837,11 @@
       <c r="Q54" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,35 +2879,36 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E57" s="3">
         <v>25200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>45900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>38300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>29000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>27500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>49700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>27600</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>12</v>
       </c>
@@ -2796,35 +2927,38 @@
       <c r="Q57" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E58" s="3">
         <v>16900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>23700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>42800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>31200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>34500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>32800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>35600</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>12</v>
       </c>
@@ -2843,35 +2977,38 @@
       <c r="Q58" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E59" s="3">
         <v>18900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>26600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>33300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>30400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>31500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>25300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>30400</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>12</v>
       </c>
@@ -2890,35 +3027,38 @@
       <c r="Q59" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E60" s="3">
         <v>61100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>96200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>114300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>90700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>93600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>107800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>93500</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>12</v>
       </c>
@@ -2937,8 +3077,11 @@
       <c r="Q60" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,16 +3127,19 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E62" s="3">
         <v>2000</v>
-      </c>
-      <c r="E62" s="3">
-        <v>100</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
@@ -3002,17 +3148,17 @@
         <v>100</v>
       </c>
       <c r="H62" s="3">
+        <v>100</v>
+      </c>
+      <c r="I62" s="3">
         <v>200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2000</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>12</v>
       </c>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,35 +3327,38 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>50700</v>
+      </c>
+      <c r="E66" s="3">
         <v>63100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>96500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>114500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>91000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>94300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>110400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>96400</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>12</v>
       </c>
@@ -3219,8 +3377,11 @@
       <c r="Q66" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3353,14 +3521,14 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>69500</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>69200</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,35 +3597,38 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-38900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-32900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-32500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-28300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-24000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-19600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-18100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-20000</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>12</v>
       </c>
@@ -3473,8 +3647,11 @@
       <c r="Q72" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,35 +3797,38 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>73200</v>
+      </c>
+      <c r="E76" s="3">
         <v>79600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>75700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>75300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>79400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>84100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-20100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-26100</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>12</v>
       </c>
@@ -3661,8 +3847,11 @@
       <c r="Q76" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,87 +3897,93 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-4400</v>
       </c>
       <c r="G81" s="3">
         <v>-4400</v>
       </c>
       <c r="H81" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>900</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>12</v>
       </c>
@@ -3807,8 +4002,11 @@
       <c r="Q81" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3855,8 +4054,8 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>12</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>12</v>
@@ -3873,8 +4072,11 @@
       <c r="Q83" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,8 +4322,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4137,8 +4354,8 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>12</v>
+      <c r="L89" s="3">
+        <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>12</v>
@@ -4155,8 +4372,11 @@
       <c r="Q89" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4203,8 +4424,8 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>12</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>12</v>
@@ -4221,8 +4442,11 @@
       <c r="Q91" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4542,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4344,8 +4574,8 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>12</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>12</v>
@@ -4362,8 +4592,11 @@
       <c r="Q94" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +4812,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4598,8 +4844,8 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>12</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>12</v>
@@ -4616,8 +4862,11 @@
       <c r="Q100" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4645,8 +4894,8 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>12</v>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>12</v>
@@ -4663,8 +4912,11 @@
       <c r="Q101" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4692,8 +4944,8 @@
       <c r="K102" s="3">
         <v>0</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>12</v>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>12</v>
@@ -4708,6 +4960,9 @@
         <v>12</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>12</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOHO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOHO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="92">
   <si>
     <t>MOHO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,257 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>42800</v>
+      </c>
+      <c r="F8" s="3">
         <v>27100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>71900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>71500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>100500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>61200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>103200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>74900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>151300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>63900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>78900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>48800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>43200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>28200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>40200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>23700</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>34400</v>
+      </c>
+      <c r="F9" s="3">
         <v>22000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>53900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>58800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>83200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>50400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>85500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>56500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>115400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>47400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>56800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>34500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>29600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>19300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>29100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F10" s="3">
         <v>5100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>18000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>12700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>17300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>10800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>17700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>18400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>35900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>16500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>22100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>14300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>13600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>8900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>11100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +934,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -917,49 +945,55 @@
         <v>300</v>
       </c>
       <c r="E12" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F12" s="3">
         <v>300</v>
       </c>
       <c r="G12" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H12" s="3">
         <v>300</v>
       </c>
       <c r="I12" s="3">
+        <v>300</v>
+      </c>
+      <c r="J12" s="3">
+        <v>300</v>
+      </c>
+      <c r="K12" s="3">
         <v>500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1042,14 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1058,8 +1098,14 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1108,8 +1154,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,41 +1177,43 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="3">
+        <v>46700</v>
+      </c>
+      <c r="F17" s="3">
         <v>33000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>72500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>75700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>103700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>66800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>104300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>72300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>148300</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>12</v>
       </c>
@@ -1175,41 +1229,47 @@
       <c r="R17" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-5900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-4200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-3200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-5600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>2600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>3000</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>12</v>
       </c>
@@ -1225,8 +1285,14 @@
       <c r="R18" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,41 +1311,43 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="3">
+        <v>400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-900</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>12</v>
       </c>
@@ -1295,8 +1363,14 @@
       <c r="R20" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1315,21 +1389,21 @@
       <c r="H21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1100</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M21" s="3">
         <v>2600</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>12</v>
       </c>
@@ -1345,8 +1419,14 @@
       <c r="R21" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,58 +1475,70 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-6100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-4100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-4500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-4600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>2200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>2100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>3900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>1600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1454,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1466,25 +1558,25 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
-      </c>
-      <c r="N24" s="3">
-        <v>100</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
       </c>
       <c r="P24" s="3">
         <v>100</v>
@@ -1495,8 +1587,14 @@
       <c r="R24" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,41 +1643,47 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-6100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-4100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-4500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-4600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1700</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>12</v>
       </c>
@@ -1595,41 +1699,47 @@
       <c r="R26" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-6100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-4100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-4400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-4400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>900</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>12</v>
       </c>
@@ -1645,8 +1755,14 @@
       <c r="R27" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1811,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1867,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,41 +1979,47 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>900</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>12</v>
       </c>
@@ -1895,41 +2035,47 @@
       <c r="R32" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-6100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-4100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-4400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-4400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>900</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>12</v>
       </c>
@@ -1945,8 +2091,14 @@
       <c r="R33" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,41 +2147,47 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-6100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-4100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-4400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-4400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>900</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>12</v>
       </c>
@@ -2045,63 +2203,75 @@
       <c r="R35" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,41 +2312,43 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>39200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>42600</v>
+      </c>
+      <c r="F41" s="3">
         <v>40900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>45300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>51400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>62500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>51000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>49100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>7800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>11700</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>12</v>
       </c>
@@ -2190,8 +2364,14 @@
       <c r="R41" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,41 +2420,47 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>38000</v>
+      </c>
+      <c r="F43" s="3">
         <v>30100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>45400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>51300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>51100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>44100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>52600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>60800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>60600</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>12</v>
       </c>
@@ -2290,41 +2476,47 @@
       <c r="R43" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>22200</v>
+      </c>
+      <c r="F44" s="3">
         <v>31200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>33300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>46700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>51200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>48600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>49900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>61300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>43900</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>12</v>
       </c>
@@ -2340,41 +2532,47 @@
       <c r="R44" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F45" s="3">
         <v>7900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>6400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>13800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>19300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>20800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>20600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>21000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>14200</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>12</v>
       </c>
@@ -2390,41 +2588,47 @@
       <c r="R45" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>111200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>111500</v>
+      </c>
+      <c r="F46" s="3">
         <v>110000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>130400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>163200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>184100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>164500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>172200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>151000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>130400</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>12</v>
       </c>
@@ -2440,8 +2644,14 @@
       <c r="R46" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2449,17 +2659,17 @@
         <v>7400</v>
       </c>
       <c r="E47" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F47" s="3">
+        <v>7400</v>
+      </c>
+      <c r="G47" s="3">
         <v>5900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>4100</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>12</v>
       </c>
@@ -2472,11 +2682,11 @@
       <c r="L47" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2490,41 +2700,47 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F48" s="3">
         <v>4100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>3400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>3000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>3500</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>12</v>
       </c>
@@ -2540,41 +2756,47 @@
       <c r="R48" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>500</v>
+      </c>
+      <c r="F49" s="3">
         <v>600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1400</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>12</v>
       </c>
@@ -2590,8 +2812,14 @@
       <c r="R49" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,41 +2924,47 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F52" s="3">
         <v>1900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>2400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>2300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>2700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>2400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>2300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>4500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>4200</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>12</v>
       </c>
@@ -2740,8 +2980,14 @@
       <c r="R52" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,41 +3036,47 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>125000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>125800</v>
+      </c>
+      <c r="F54" s="3">
         <v>123900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>142600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>172200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>189800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>170400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>178500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>159800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>139500</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>12</v>
       </c>
@@ -2840,8 +3092,14 @@
       <c r="R54" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,41 +3140,43 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>16800</v>
+      </c>
+      <c r="F57" s="3">
         <v>16700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>25200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>45900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>38300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>29000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>27500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>49700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>27600</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>12</v>
       </c>
@@ -2930,41 +3192,47 @@
       <c r="R57" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>16400</v>
+      </c>
+      <c r="F58" s="3">
         <v>12500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>16900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>23700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>42800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>31200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>34500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>32800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>35600</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>12</v>
       </c>
@@ -2980,41 +3248,47 @@
       <c r="R58" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>17700</v>
+      </c>
+      <c r="F59" s="3">
         <v>18800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>18900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>26600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>33300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>30400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>31500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>25300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>30400</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>12</v>
       </c>
@@ -3030,41 +3304,47 @@
       <c r="R59" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>46600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>50900</v>
+      </c>
+      <c r="F60" s="3">
         <v>48000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>61100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>96200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>114300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>90700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>93600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>107800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>93500</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>12</v>
       </c>
@@ -3080,8 +3360,14 @@
       <c r="R60" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,41 +3416,47 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E62" s="3">
         <v>2700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G62" s="3">
         <v>2000</v>
-      </c>
-      <c r="F62" s="3">
-        <v>100</v>
-      </c>
-      <c r="G62" s="3">
-        <v>100</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
       </c>
       <c r="I62" s="3">
+        <v>100</v>
+      </c>
+      <c r="J62" s="3">
+        <v>100</v>
+      </c>
+      <c r="K62" s="3">
         <v>200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2000</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>12</v>
       </c>
@@ -3180,8 +3472,14 @@
       <c r="R62" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,41 +3640,47 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>53600</v>
+      </c>
+      <c r="F66" s="3">
         <v>50700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>63100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>96500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>114500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>91000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>94300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>110400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>96400</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>12</v>
       </c>
@@ -3380,8 +3696,14 @@
       <c r="R66" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3524,17 +3860,17 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>69500</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>69200</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3550,8 +3886,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,41 +3942,47 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-46200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-42500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-38900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-32900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-32500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-28300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-24000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-19600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-18100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-20000</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>12</v>
       </c>
@@ -3650,8 +3998,14 @@
       <c r="R72" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,41 +4166,47 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>72200</v>
+      </c>
+      <c r="F76" s="3">
         <v>73200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>79600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>75700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>75300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>79400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>84100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-20100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-26100</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>12</v>
       </c>
@@ -3850,8 +4222,14 @@
       <c r="R76" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,96 +4278,108 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-6100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-4100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-4400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-4400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>900</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>12</v>
       </c>
@@ -4005,8 +4395,14 @@
       <c r="R81" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T81" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4421,10 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4057,11 +4455,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>12</v>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>12</v>
@@ -4075,8 +4473,14 @@
       <c r="R83" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4753,14 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4357,11 +4791,11 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>12</v>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>12</v>
@@ -4375,8 +4809,14 @@
       <c r="R89" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4835,10 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4427,11 +4869,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>12</v>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>12</v>
@@ -4445,8 +4887,14 @@
       <c r="R91" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4999,14 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4577,11 +5037,11 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>12</v>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>12</v>
@@ -4595,8 +5055,14 @@
       <c r="R94" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +5081,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +5133,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5301,14 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4847,11 +5339,11 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>12</v>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>12</v>
@@ -4865,8 +5357,14 @@
       <c r="R100" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4897,11 +5395,11 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>12</v>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>12</v>
@@ -4915,8 +5413,14 @@
       <c r="R101" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T101" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4947,11 +5451,11 @@
       <c r="L102" s="3">
         <v>0</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>12</v>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>12</v>
@@ -4963,6 +5467,12 @@
         <v>12</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>12</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOHO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOHO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="92">
   <si>
     <t>MOHO</t>
   </si>
@@ -1184,8 +1184,8 @@
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>12</v>
+      <c r="D17" s="3">
+        <v>31900</v>
       </c>
       <c r="E17" s="3">
         <v>46700</v>
@@ -1240,8 +1240,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>12</v>
+      <c r="D18" s="3">
+        <v>-3600</v>
       </c>
       <c r="E18" s="3">
         <v>-3900</v>
@@ -1318,8 +1318,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>12</v>
+      <c r="D20" s="3">
+        <v>-200</v>
       </c>
       <c r="E20" s="3">
         <v>400</v>
@@ -1654,8 +1654,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>12</v>
+      <c r="D26" s="3">
+        <v>-3800</v>
       </c>
       <c r="E26" s="3">
         <v>-3600</v>
@@ -1710,8 +1710,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>12</v>
+      <c r="D27" s="3">
+        <v>-3800</v>
       </c>
       <c r="E27" s="3">
         <v>-3600</v>
@@ -1990,8 +1990,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>12</v>
+      <c r="D32" s="3">
+        <v>200</v>
       </c>
       <c r="E32" s="3">
         <v>-400</v>
@@ -2046,8 +2046,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>12</v>
+      <c r="D33" s="3">
+        <v>-3800</v>
       </c>
       <c r="E33" s="3">
         <v>-3600</v>
@@ -2158,8 +2158,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>12</v>
+      <c r="D35" s="3">
+        <v>-3800</v>
       </c>
       <c r="E35" s="3">
         <v>-3600</v>
@@ -4350,8 +4350,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>12</v>
+      <c r="D81" s="3">
+        <v>-3800</v>
       </c>
       <c r="E81" s="3">
         <v>-3600</v>

--- a/AAII_Financials/Quarterly/MOHO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOHO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="92">
   <si>
     <t>MOHO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E8" s="3">
         <v>28300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>42800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>27100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>71900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>71500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>100500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>61200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>103200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>74900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>151300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>63900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>78900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>48800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>43200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>28200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>40200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>23700</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E9" s="3">
         <v>21800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>34400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>22000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>53900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>58800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>83200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>50400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>85500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>56500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>115400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>47400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>56800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>34500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>29600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>19300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>29100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="E10" s="3">
         <v>6500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>8400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>18000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>12700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>17300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>10800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>17700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>18400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>35900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>16500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>22100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>14300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>13600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>11100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,13 +948,14 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E12" s="3">
         <v>300</v>
@@ -951,10 +964,10 @@
         <v>300</v>
       </c>
       <c r="G12" s="3">
+        <v>300</v>
+      </c>
+      <c r="H12" s="3">
         <v>200</v>
-      </c>
-      <c r="H12" s="3">
-        <v>300</v>
       </c>
       <c r="I12" s="3">
         <v>300</v>
@@ -963,37 +976,40 @@
         <v>300</v>
       </c>
       <c r="K12" s="3">
+        <v>300</v>
+      </c>
+      <c r="L12" s="3">
         <v>500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>600</v>
-      </c>
-      <c r="P12" s="3">
-        <v>400</v>
       </c>
       <c r="Q12" s="3">
         <v>400</v>
       </c>
       <c r="R12" s="3">
+        <v>400</v>
+      </c>
+      <c r="S12" s="3">
         <v>300</v>
-      </c>
-      <c r="S12" s="3">
-        <v>200</v>
       </c>
       <c r="T12" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,44 +1204,45 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="3">
         <v>31900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>46700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>33000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>72500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>75700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>103700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>66800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>104300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>72300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>148300</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>12</v>
       </c>
@@ -1235,44 +1261,47 @@
       <c r="T17" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3000</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>12</v>
       </c>
@@ -1291,8 +1320,11 @@
       <c r="T18" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,44 +1345,45 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-900</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>12</v>
       </c>
@@ -1369,8 +1402,11 @@
       <c r="T20" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1395,18 +1431,18 @@
       <c r="J21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" s="3">
         <v>-1100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21" s="3">
         <v>2600</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>12</v>
       </c>
@@ -1425,8 +1461,11 @@
       <c r="T21" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,76 +1520,82 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-45300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1564,37 +1609,40 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>400</v>
-      </c>
-      <c r="N24" s="3">
-        <v>200</v>
       </c>
       <c r="O24" s="3">
         <v>200</v>
       </c>
       <c r="P24" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,44 +1697,47 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1700</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>12</v>
       </c>
@@ -1705,44 +1756,47 @@
       <c r="T26" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-4400</v>
       </c>
       <c r="J27" s="3">
         <v>-4400</v>
       </c>
       <c r="K27" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="L27" s="3">
         <v>-1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>900</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>12</v>
       </c>
@@ -1761,8 +1815,11 @@
       <c r="T27" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,44 +2051,47 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>1300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>900</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>12</v>
       </c>
@@ -2041,44 +2110,47 @@
       <c r="T32" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-4400</v>
       </c>
       <c r="J33" s="3">
         <v>-4400</v>
       </c>
       <c r="K33" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="L33" s="3">
         <v>-1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>900</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>12</v>
       </c>
@@ -2097,8 +2169,11 @@
       <c r="T33" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,44 +2228,47 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-4400</v>
       </c>
       <c r="J35" s="3">
         <v>-4400</v>
       </c>
       <c r="K35" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="L35" s="3">
         <v>-1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>900</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>12</v>
       </c>
@@ -2209,69 +2287,75 @@
       <c r="T35" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,44 +2399,45 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E41" s="3">
         <v>39200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>42600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>40900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>45300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>51400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>62500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>51000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>49100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11700</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>12</v>
       </c>
@@ -2370,8 +2456,11 @@
       <c r="T41" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,44 +2515,47 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E43" s="3">
         <v>33900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>38000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>30100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>45400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>51300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>51100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>44100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>52600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>60800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>60600</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>12</v>
       </c>
@@ -2482,44 +2574,47 @@
       <c r="T43" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E44" s="3">
         <v>31900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>22200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>31200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>33300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>46700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>51200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>48600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>49900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>61300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>43900</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>12</v>
       </c>
@@ -2538,44 +2633,47 @@
       <c r="T44" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E45" s="3">
         <v>6300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>13800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>19300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>20800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>20600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>21000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>14200</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>12</v>
       </c>
@@ -2594,44 +2692,47 @@
       <c r="T45" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>87100</v>
+      </c>
+      <c r="E46" s="3">
         <v>111200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>111500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>110000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>130400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>163200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>184100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>164500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>172200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>151000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>130400</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>12</v>
       </c>
@@ -2650,13 +2751,16 @@
       <c r="T46" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7400</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
         <v>7400</v>
@@ -2665,14 +2769,14 @@
         <v>7400</v>
       </c>
       <c r="G47" s="3">
+        <v>7400</v>
+      </c>
+      <c r="H47" s="3">
         <v>5900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4100</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>12</v>
       </c>
@@ -2688,8 +2792,8 @@
       <c r="N47" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2706,44 +2810,47 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E48" s="3">
         <v>3900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3500</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>12</v>
       </c>
@@ -2762,44 +2869,47 @@
       <c r="T48" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E49" s="3">
         <v>500</v>
       </c>
       <c r="F49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G49" s="3">
         <v>600</v>
       </c>
       <c r="H49" s="3">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="I49" s="3">
         <v>1100</v>
       </c>
       <c r="J49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K49" s="3">
         <v>1200</v>
-      </c>
-      <c r="K49" s="3">
-        <v>1300</v>
       </c>
       <c r="L49" s="3">
         <v>1300</v>
       </c>
       <c r="M49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N49" s="3">
         <v>1400</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>12</v>
       </c>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,44 +3046,47 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4200</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>12</v>
       </c>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,44 +3164,47 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>93600</v>
+      </c>
+      <c r="E54" s="3">
         <v>125000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>125800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>123900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>142600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>172200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>189800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>170400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>178500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>159800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>139500</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>12</v>
       </c>
@@ -3098,8 +3223,11 @@
       <c r="T54" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,44 +3271,45 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E57" s="3">
         <v>18500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>16800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>16700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>25200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>45900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>38300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>29000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>27500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>49700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>27600</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>12</v>
       </c>
@@ -3198,44 +3328,47 @@
       <c r="T57" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E58" s="3">
         <v>11600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>16400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>12500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>16900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>23700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>42800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>31200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>34500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>32800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>35600</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>12</v>
       </c>
@@ -3254,44 +3387,47 @@
       <c r="T58" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E59" s="3">
         <v>16500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>17700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>18800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>18900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>26600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>33300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>30400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>31500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>25300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>30400</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>12</v>
       </c>
@@ -3310,44 +3446,47 @@
       <c r="T59" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>63900</v>
+      </c>
+      <c r="E60" s="3">
         <v>46600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>50900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>48000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>61100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>96200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>114300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>90700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>93600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>107800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>93500</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>12</v>
       </c>
@@ -3366,8 +3505,11 @@
       <c r="T60" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,25 +3564,28 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>800</v>
+      </c>
+      <c r="E62" s="3">
         <v>2400</v>
-      </c>
-      <c r="E62" s="3">
-        <v>2700</v>
       </c>
       <c r="F62" s="3">
         <v>2700</v>
       </c>
       <c r="G62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H62" s="3">
         <v>2000</v>
-      </c>
-      <c r="H62" s="3">
-        <v>100</v>
       </c>
       <c r="I62" s="3">
         <v>100</v>
@@ -3449,17 +3594,17 @@
         <v>100</v>
       </c>
       <c r="K62" s="3">
+        <v>100</v>
+      </c>
+      <c r="L62" s="3">
         <v>200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2000</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>12</v>
       </c>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,44 +3800,47 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>64600</v>
+      </c>
+      <c r="E66" s="3">
         <v>49000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>53600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>50700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>63100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>96500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>114500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>91000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>94300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>110400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>96400</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>12</v>
       </c>
@@ -3702,8 +3859,11 @@
       <c r="T66" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3866,14 +4033,14 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>69500</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>69200</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,44 +4118,47 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-88500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-46200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-42500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-38900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-32900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-32500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-28300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-24000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-19600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-18100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-20000</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>12</v>
       </c>
@@ -4004,8 +4177,11 @@
       <c r="T72" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,44 +4354,47 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>28900</v>
+      </c>
+      <c r="E76" s="3">
         <v>76000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>72200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>73200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>79600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>75700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>75300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>79400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>84100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-20100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-26100</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>12</v>
       </c>
@@ -4228,8 +4413,11 @@
       <c r="T76" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,105 +4472,111 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-4400</v>
       </c>
       <c r="J81" s="3">
         <v>-4400</v>
       </c>
       <c r="K81" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="L81" s="3">
         <v>-1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>900</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>12</v>
       </c>
@@ -4401,8 +4595,11 @@
       <c r="T81" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4461,8 +4659,8 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>12</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>12</v>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4972,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4797,8 +5013,8 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>12</v>
+      <c r="O89" s="3">
+        <v>0</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>12</v>
@@ -4815,8 +5031,11 @@
       <c r="T89" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4875,8 +5095,8 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>12</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>12</v>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5043,8 +5272,8 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>12</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>12</v>
@@ -5061,8 +5290,11 @@
       <c r="T94" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5549,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5345,8 +5590,8 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>12</v>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>12</v>
@@ -5363,8 +5608,11 @@
       <c r="T100" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5401,8 +5649,8 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>12</v>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>12</v>
@@ -5419,8 +5667,11 @@
       <c r="T101" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5457,8 +5708,8 @@
       <c r="N102" s="3">
         <v>0</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>12</v>
+      <c r="O102" s="3">
+        <v>0</v>
       </c>
       <c r="P102" s="3" t="s">
         <v>12</v>
@@ -5473,6 +5724,9 @@
         <v>12</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>12</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOHO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOHO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="92">
   <si>
     <t>MOHO</t>
   </si>
@@ -1073,25 +1073,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>7300</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1210,8 +1210,8 @@
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>12</v>
+      <c r="D17" s="3">
+        <v>75400</v>
       </c>
       <c r="E17" s="3">
         <v>31900</v>
@@ -1269,8 +1269,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>12</v>
+      <c r="D18" s="3">
+        <v>-42800</v>
       </c>
       <c r="E18" s="3">
         <v>-3600</v>
@@ -1351,8 +1351,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>12</v>
+      <c r="D20" s="3">
+        <v>-2500</v>
       </c>
       <c r="E20" s="3">
         <v>-200</v>
@@ -1705,8 +1705,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>12</v>
+      <c r="D26" s="3">
+        <v>-42300</v>
       </c>
       <c r="E26" s="3">
         <v>-3800</v>
@@ -1764,8 +1764,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>12</v>
+      <c r="D27" s="3">
+        <v>-42300</v>
       </c>
       <c r="E27" s="3">
         <v>-3800</v>
@@ -2059,8 +2059,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>12</v>
+      <c r="D32" s="3">
+        <v>2500</v>
       </c>
       <c r="E32" s="3">
         <v>200</v>
@@ -2118,8 +2118,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>12</v>
+      <c r="D33" s="3">
+        <v>-42300</v>
       </c>
       <c r="E33" s="3">
         <v>-3800</v>
@@ -2236,8 +2236,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>12</v>
+      <c r="D35" s="3">
+        <v>-42300</v>
       </c>
       <c r="E35" s="3">
         <v>-3800</v>
@@ -2524,7 +2524,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>19200</v>
+        <v>16200</v>
       </c>
       <c r="E43" s="3">
         <v>33900</v>
@@ -2642,7 +2642,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="E45" s="3">
         <v>6300</v>
@@ -3278,7 +3278,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>37300</v>
+        <v>35900</v>
       </c>
       <c r="E57" s="3">
         <v>18500</v>
@@ -3396,7 +3396,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12300</v>
+        <v>17700</v>
       </c>
       <c r="E59" s="3">
         <v>16500</v>
@@ -4544,8 +4544,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>12</v>
+      <c r="D81" s="3">
+        <v>-42300</v>
       </c>
       <c r="E81" s="3">
         <v>-3800</v>
